--- a/Testing_Documents/Admin_Dashboard_testcase.xlsx
+++ b/Testing_Documents/Admin_Dashboard_testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRI\Desktop\Eduhub Test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F96F44A-3B03-4AE3-8B19-EB2544BDC44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60104DE6-35CC-4124-A01A-323399A7C0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="9" xr2:uid="{034D096B-09E3-4756-91C4-5115EB90C59C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="11" xr2:uid="{034D096B-09E3-4756-91C4-5115EB90C59C}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin_Login" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="ClassRoom" sheetId="8" r:id="rId8"/>
     <sheet name="Roles" sheetId="10" r:id="rId9"/>
     <sheet name="Role_users" sheetId="11" r:id="rId10"/>
+    <sheet name="User Privileges" sheetId="12" r:id="rId11"/>
+    <sheet name="User_login" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="1619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="1726">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -5832,13 +5834,6 @@
 5.click 'Submit' Button</t>
   </si>
   <si>
-    <t xml:space="preserve">'Selva'
-testmail@example.com
-0123456789
-HR
-</t>
-  </si>
-  <si>
     <t>1.User should create new 'user' Successfully</t>
   </si>
   <si>
@@ -6355,12 +6350,430 @@
     <t>Functionality check for 
 Name Text Field allows special characters</t>
   </si>
+  <si>
+    <t>TC_URP_001</t>
+  </si>
+  <si>
+    <t>TC_URP_003</t>
+  </si>
+  <si>
+    <t>TC_URP_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify user Navigating into ' List Privileges' page
+</t>
+  </si>
+  <si>
+    <t>1.User should navigated to Dashboard page</t>
+  </si>
+  <si>
+    <t>1.Click on List Privilege</t>
+  </si>
+  <si>
+    <t>1.User should taken to the List privileges page</t>
+  </si>
+  <si>
+    <t>TC_URP_005</t>
+  </si>
+  <si>
+    <t>TC_URP_006</t>
+  </si>
+  <si>
+    <t>Verify user can Add User Privileges</t>
+  </si>
+  <si>
+    <t>1. User should navigated to Add User Privileges Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. click on 'Add user previleges' fields
+2. Select 'user name' from select user name list drop down
+3. Select site configuration features
+4. Select previleges by enabling check boxes
+5. Click 'submit' button
+</t>
+  </si>
+  <si>
+    <t>TC_URP_007</t>
+  </si>
+  <si>
+    <t>Verify the system displays total number of user created for a Role after adding new user on Add User Privilege page</t>
+  </si>
+  <si>
+    <t>1.Check the system displays total number of user created for a Role on Add User Privilege page</t>
+  </si>
+  <si>
+    <t>System should display the total number of users created for a role after adding user on Add User Privilege page</t>
+  </si>
+  <si>
+    <t>TC_URP_008</t>
+  </si>
+  <si>
+    <t>(TS_009)
+Functionality check for Total number of 'Active' users count display on role name after suspending user</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>TC_URP_009</t>
+  </si>
+  <si>
+    <t>TC_URP_010</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>TC_URP_011</t>
+  </si>
+  <si>
+    <t>(TS_009) 
+Functionality check for 
+close button on Add user privileges page</t>
+  </si>
+  <si>
+    <t>Verify 'close' button is available in Add user privileges page at right side corner and is working</t>
+  </si>
+  <si>
+    <t>1.User should navigated to List Role Page
+2.User should navigated to Edit Role Page</t>
+  </si>
+  <si>
+    <t>verify user name can be selected in 'Add user privileges' for a selected role</t>
+  </si>
+  <si>
+    <t>1.User should navigated to Add user previleges Page</t>
+  </si>
+  <si>
+    <t>1.Click ' Add user previlege' link under role name
+2.Verify user navigates to Add user privilege page
+3. select the added user name already exist in 'user name' text field on add user privilege page</t>
+  </si>
+  <si>
+    <t>User should verify the added role name already exist in 'user name' text field on add user previlege page</t>
+  </si>
+  <si>
+    <t>Verify user should naviagated to 'List user privileges' page</t>
+  </si>
+  <si>
+    <t>1.Click on 'List Previleges' under Add privilege menu</t>
+  </si>
+  <si>
+    <t>1.User should taken to List previleges page</t>
+  </si>
+  <si>
+    <t>Verify user should naviagated to 'Edit user privileges' page</t>
+  </si>
+  <si>
+    <t>1. User should be Successfully Signed in 
+2.User should navigated to List user privileges page</t>
+  </si>
+  <si>
+    <t>1.Click on 'Edit' Button under Action header</t>
+  </si>
+  <si>
+    <t>1.User should taken to Edit previleges page</t>
+  </si>
+  <si>
+    <t>Verify can edit user Privileges</t>
+  </si>
+  <si>
+    <t>1. User should be Successfully Signed in 
+2.User should navigated to Edit user privileges page</t>
+  </si>
+  <si>
+    <t>1.Edit Privileges by selecting check box in Create,read,update,suspend
+2.Click on 'Submit' Button</t>
+  </si>
+  <si>
+    <t>Message with a text "User Privileges updated successfully'</t>
+  </si>
+  <si>
+    <t>Verify can clear all Privileges</t>
+  </si>
+  <si>
+    <t>1.Click on 'Clear All' Button
+2.Click on 'Submit' Button</t>
+  </si>
+  <si>
+    <t>Message with a text "User Privileges updated successfully' should be displayed</t>
+  </si>
+  <si>
+    <t>Verify can select all Privileges</t>
+  </si>
+  <si>
+    <t>1.Click on 'Select All' Button
+2.Click on 'Submit' Button</t>
+  </si>
+  <si>
+    <t>Verify can view added user in list user Privilege page</t>
+  </si>
+  <si>
+    <t>1.New User should created on a particular role
+2.Privileges should added for that created user</t>
+  </si>
+  <si>
+    <t>1.Click on 'List Privileges' under add privilege menu</t>
+  </si>
+  <si>
+    <t>System should display the added user list in 'List User Privilege' Page</t>
+  </si>
+  <si>
+    <t>(TS_017) 
+Functionality check for
+Authentication Screen using Valid credentials</t>
+  </si>
+  <si>
+    <t>(TS_017) 
+Functionality check for Adding the
+User previleges</t>
+  </si>
+  <si>
+    <t>(TS_017) 
+Functionality check for Total number of 'Active' users count display under role after adding new user</t>
+  </si>
+  <si>
+    <t>(TS_017) 
+Functionality check for user
+name in Add user privileges</t>
+  </si>
+  <si>
+    <t>(TS_017) 
+Functionality check for 'Edit user Privilege'</t>
+  </si>
+  <si>
+    <t>(TS_017) 
+Functionality check will user navigate to 'Edit user Privilege'</t>
+  </si>
+  <si>
+    <t>(TS_017) 
+Functionality check for clearing all privileges on edit user privileges</t>
+  </si>
+  <si>
+    <t>(TS_017) 
+Non Functionality check will user navigate to 'List user Privilege Page</t>
+  </si>
+  <si>
+    <t>(TS_017) 
+Functionality check for Selecting all privileges on edit user privileges</t>
+  </si>
+  <si>
+    <t>(TS_017) 
+ Functionality check will user navigate to 'list Privileges' Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+User should get a message "User Privileges added successfully"</t>
+  </si>
+  <si>
+    <t>(TS_017) 
+Functionality check for Added user list in 'List User Privilege' Page</t>
+  </si>
+  <si>
+    <t>TC_URP_002</t>
+  </si>
+  <si>
+    <t>TC_URP_012</t>
+  </si>
+  <si>
+    <t>TC_URP_013</t>
+  </si>
+  <si>
+    <t>TC_URP_014</t>
+  </si>
+  <si>
+    <t>TC_LF_019</t>
+  </si>
+  <si>
+    <t>TC_LF_020</t>
+  </si>
+  <si>
+    <t>1. Valid Login Mail id for registered user is required</t>
+  </si>
+  <si>
+    <t>1.Signin with registered Email Address  (admin-test@krugis.ee )
+2.Check Inbox, whether Password mail is received or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(admin-test@krugis.ee ) </t>
+  </si>
+  <si>
+    <t>TC_USR_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selva'
+testmail@example.com
+0123456789
+HR
+</t>
+  </si>
+  <si>
+    <t>testmail@example.com</t>
+  </si>
+  <si>
+    <t>1.Signin with registered Email Address  (testmail@example.com)
+2.Check Inbox, whether Password mail is received or not.</t>
+  </si>
+  <si>
+    <t>Login-Role User</t>
+  </si>
+  <si>
+    <t>Email Address - testmail@example.com 
+Password -1234567</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for
+Authentication Screen using Valid credentials</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for
+Authentication Screen using Invalid credentials</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for 
+Authentication Screen 
+using Invalid credentials</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for 
+Authentication Screen using Invalid credentials</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for 
+Authentication Screen 
+using without any credentials</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for
+'Forgot Password' link</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for
+'Remember Me' check box</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Non functionality check for 
+place holder text</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for
+unsuccessful login attempts</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for
+Toggle Password Visibility</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for
+Reopening the application 
+after Logout</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check
+copy option in the Password field</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for
+Session Timeout</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for
+Browser back button before Logout</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check
+Browser back button 
+after Logout</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for UI</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for Browser Environments</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for 
+Login with new password</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for 
+Login with old password</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for 
+Resetting Password using 
+'Forgot Password'
+Link</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for Password Reset mail to 
+registered email address</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for Resetting password using non-registered email</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for
+Back to Login button</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for 'Forgot Password' page 
+Navigation</t>
+  </si>
+  <si>
+    <t>(TS_018)
+Functionality check for 
+Invalid Email address</t>
+  </si>
+  <si>
+    <t>(TS_018) 
+Functionality check for Browser Environments</t>
+  </si>
+  <si>
+    <t>TC_TEC_053</t>
+  </si>
+  <si>
+    <t>selva80722@gmail.com</t>
+  </si>
+  <si>
+    <t>TC_PR_026</t>
+  </si>
+  <si>
+    <t>arunpandian@example.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6444,6 +6857,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -6916,10 +7337,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -7063,6 +7485,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -7096,18 +7542,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -7123,26 +7557,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7455,10 +7884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC145CE-2373-41C4-8B27-92F234C4C068}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7472,7 +7901,7 @@
     <col min="7" max="7" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7498,11 +7927,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -7510,7 +7939,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -7534,7 +7963,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -7558,7 +7987,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="141.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="141.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
@@ -7582,7 +8011,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
@@ -7606,7 +8035,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -7630,7 +8059,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
@@ -7654,7 +8083,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>38</v>
       </c>
@@ -7678,231 +8107,237 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>892</v>
+        <v>450</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>43</v>
+        <v>451</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>17</v>
+        <v>1686</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>44</v>
+        <v>1687</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>32</v>
+        <v>1688</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="169.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="169.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>71</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>17</v>
@@ -7914,325 +8349,350 @@
         <v>32</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>902</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>903</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F21" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="51" t="s">
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
-    </row>
-    <row r="23" spans="1:8" ht="298.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
+    </row>
+    <row r="24" spans="1:8" ht="298.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>904</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>905</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>98</v>
       </c>
       <c r="G24" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>907</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>115</v>
+    <row r="27" spans="1:8" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>894</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>116</v>
+        <v>907</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G27" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>908</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E29" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G29" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="147.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="147.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>903</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F30" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G30" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B31" s="8" t="s">
         <v>900</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>909</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F32" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G32" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B33" s="8" t="s">
         <v>910</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E33" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="H32" s="6"/>
+      <c r="H33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2732A616-5E8C-4761-9A67-366C77111B1B}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8256,28 +8716,28 @@
       <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="52" t="s">
         <v>455</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -8285,26 +8745,26 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="73" t="s">
         <v>1460</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="69"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:11" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1461</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>10</v>
@@ -8327,7 +8787,7 @@
       <c r="I3" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="J3" s="74"/>
+      <c r="J3" s="56"/>
       <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8335,7 +8795,7 @@
         <v>1462</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>1463</v>
@@ -8358,7 +8818,7 @@
       <c r="I4" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="J4" s="75"/>
+      <c r="J4" s="57"/>
       <c r="K4" s="41"/>
     </row>
     <row r="5" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8366,7 +8826,7 @@
         <v>1468</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>1469</v>
@@ -8389,7 +8849,7 @@
       <c r="I5" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="41"/>
     </row>
     <row r="6" spans="1:11" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8397,7 +8857,7 @@
         <v>1473</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>1474</v>
@@ -8408,129 +8868,129 @@
       <c r="E6" s="9" t="s">
         <v>1476</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="77" t="s">
+        <v>1690</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>1477</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>1478</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>1479</v>
       </c>
       <c r="I6" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="J6" s="75"/>
+      <c r="J6" s="57"/>
       <c r="K6" s="41"/>
     </row>
     <row r="7" spans="1:11" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>1480</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>1481</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>1482</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>1483</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="9" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>1484</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>1485</v>
       </c>
       <c r="I7" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="J7" s="75"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>1486</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>1487</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>1488</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>1489</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="9" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>1490</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>1491</v>
       </c>
       <c r="I8" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="J8" s="75"/>
+      <c r="J8" s="57"/>
       <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>1492</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>1493</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>1494</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>1495</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>1412</v>
       </c>
       <c r="G9" s="9" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H9" s="25" t="s">
         <v>1496</v>
       </c>
-      <c r="H9" s="25" t="s">
-        <v>1497</v>
-      </c>
-      <c r="I9" s="70" t="s">
+      <c r="I9" s="53" t="s">
         <v>424</v>
       </c>
-      <c r="J9" s="75"/>
+      <c r="J9" s="57"/>
       <c r="K9" s="41"/>
     </row>
     <row r="10" spans="1:11" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>1356</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>1499</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>1500</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>181</v>
@@ -8541,21 +9001,21 @@
       <c r="H10" s="25" t="s">
         <v>1358</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="J10" s="75"/>
+      <c r="J10" s="57"/>
       <c r="K10" s="41"/>
     </row>
     <row r="11" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>1501</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>1502</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>1361</v>
@@ -8572,18 +9032,18 @@
       <c r="H11" s="25" t="s">
         <v>1364</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="J11" s="75"/>
+      <c r="J11" s="57"/>
       <c r="K11" s="41"/>
     </row>
     <row r="12" spans="1:11" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>1366</v>
@@ -8603,18 +9063,18 @@
       <c r="H12" s="25" t="s">
         <v>1358</v>
       </c>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="J12" s="75"/>
+      <c r="J12" s="57"/>
       <c r="K12" s="41"/>
     </row>
     <row r="13" spans="1:11" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>1370</v>
@@ -8637,21 +9097,21 @@
       <c r="I13" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="J13" s="75"/>
+      <c r="J13" s="57"/>
       <c r="K13" s="41"/>
     </row>
     <row r="14" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>1505</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>1506</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>1507</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>1378</v>
@@ -8663,26 +9123,26 @@
         <v>1379</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="J14" s="75"/>
-      <c r="K14" s="71"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="54"/>
     </row>
     <row r="15" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>1382</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>1384</v>
@@ -8694,23 +9154,23 @@
         <v>1385</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="I15" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="J15" s="75"/>
-      <c r="K15" s="71"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="54"/>
     </row>
     <row r="16" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>1512</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>1513</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>203</v>
@@ -8730,21 +9190,21 @@
       <c r="I16" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="J16" s="75"/>
+      <c r="J16" s="57"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="1:11" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>208</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>1399</v>
@@ -8761,21 +9221,21 @@
       <c r="I17" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="J17" s="75"/>
+      <c r="J17" s="57"/>
       <c r="K17" s="41"/>
     </row>
-    <row r="18" spans="1:11" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>1516</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>1605</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>1517</v>
-      </c>
       <c r="D18" s="9" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>1407</v>
@@ -8790,327 +9250,327 @@
       <c r="I18" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="J18" s="75"/>
-      <c r="K18" s="72" t="s">
+      <c r="J18" s="57"/>
+      <c r="K18" s="55" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="B19" s="8" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>1519</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>1520</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>1521</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>1522</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="9" t="s">
         <v>1523</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>1524</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>1525</v>
       </c>
       <c r="I19" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="J19" s="75"/>
+      <c r="J19" s="57"/>
       <c r="K19" s="41"/>
     </row>
-    <row r="20" spans="1:11" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>1526</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>1527</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>1528</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>1529</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="9" t="s">
+        <v>1529</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>1530</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>1531</v>
       </c>
       <c r="I20" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="J20" s="75"/>
+      <c r="J20" s="57"/>
       <c r="K20" s="41"/>
     </row>
-    <row r="21" spans="1:11" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>1532</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>1618</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>1533</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>1534</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="9" t="s">
         <v>1535</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>1536</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>1537</v>
       </c>
       <c r="I21" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="J21" s="75"/>
+      <c r="J21" s="57"/>
       <c r="K21" s="41"/>
     </row>
-    <row r="22" spans="1:11" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>1538</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>1608</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>1539</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>1540</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="9" t="s">
         <v>1541</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>1542</v>
-      </c>
       <c r="H22" s="9" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="I22" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="J22" s="75"/>
+      <c r="J22" s="57"/>
       <c r="K22" s="41"/>
     </row>
-    <row r="23" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>1543</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="D23" s="9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>1544</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>1540</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="G23" s="9" t="s">
         <v>1545</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>1546</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>1547</v>
       </c>
       <c r="I23" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="J23" s="75"/>
+      <c r="J23" s="57"/>
       <c r="K23" s="41"/>
     </row>
-    <row r="24" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>1548</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>1549</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>1550</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="G24" s="9" t="s">
         <v>1551</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="H24" s="6" t="s">
         <v>1552</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>1553</v>
       </c>
       <c r="I24" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="J24" s="75"/>
+      <c r="J24" s="57"/>
       <c r="K24" s="41"/>
     </row>
-    <row r="25" spans="1:11" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>1554</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>1555</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>1556</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="G25" s="9" t="s">
         <v>1557</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="H25" s="9" t="s">
         <v>1558</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>1559</v>
       </c>
       <c r="I25" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="J25" s="75"/>
+      <c r="J25" s="57"/>
       <c r="K25" s="41"/>
     </row>
-    <row r="26" spans="1:11" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>1560</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>1561</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>1562</v>
       </c>
       <c r="F26" s="8">
         <v>12345678</v>
       </c>
       <c r="G26" s="9" t="s">
+        <v>1562</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>1563</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>1564</v>
       </c>
       <c r="I26" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="J26" s="75"/>
+      <c r="J26" s="57"/>
       <c r="K26" s="41"/>
     </row>
-    <row r="27" spans="1:11" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>1565</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="D27" s="9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>1566</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>1562</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="G27" s="9" t="s">
         <v>1567</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="H27" s="6" t="s">
         <v>1568</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>1569</v>
       </c>
       <c r="I27" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="J27" s="75"/>
+      <c r="J27" s="57"/>
       <c r="K27" s="41"/>
     </row>
-    <row r="28" spans="1:11" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>214</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>1571</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>1572</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>181</v>
       </c>
       <c r="G28" s="9" t="s">
+        <v>1572</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>1573</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>1574</v>
       </c>
       <c r="I28" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="J28" s="75"/>
+      <c r="J28" s="57"/>
       <c r="K28" s="41"/>
     </row>
-    <row r="29" spans="1:11" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>1419</v>
@@ -9133,74 +9593,1349 @@
       <c r="I29" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="J29" s="75"/>
+      <c r="J29" s="57"/>
       <c r="K29" s="41"/>
     </row>
-    <row r="30" spans="1:11" ht="171" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="171" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>1576</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>1577</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>1578</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="F30" s="39" t="s">
         <v>1579</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="G30" s="9" t="s">
         <v>1580</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="H30" s="9" t="s">
         <v>1581</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>1582</v>
       </c>
       <c r="I30" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="J30" s="75"/>
+      <c r="J30" s="57"/>
       <c r="K30" s="41"/>
     </row>
-    <row r="31" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>1583</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>1584</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="E31" s="9" t="s">
         <v>1585</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="F31" s="39" t="s">
         <v>1586</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="G31" s="9" t="s">
         <v>1587</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="H31" s="9" t="s">
         <v>1588</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>1589</v>
       </c>
       <c r="I31" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="J31" s="76"/>
-      <c r="K31" s="71"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="54"/>
+    </row>
+    <row r="32" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F32" s="78" t="s">
+        <v>1691</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F32" r:id="rId1" xr:uid="{3710D6AF-703A-4196-A379-7AA683E6E2CB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A1500C-A7C8-485F-B135-870813F1491B}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="119.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:11" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="8" t="s">
+        <v>1636</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>1404</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8" t="s">
+        <v>1639</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="123.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8" t="s">
+        <v>1639</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>1650</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:11" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="1:11" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="1:11" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="1:11" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>1661</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="1:11" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>1661</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="1:11" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C299ED-F86A-47AA-97B1-6082B67D9713}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="174.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="180.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="179.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="189" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="167.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="61" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="63"/>
+    </row>
+    <row r="23" spans="1:8" ht="342" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="183.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A22:H22"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9227,10 +10962,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="64" t="s">
         <v>819</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="65"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
@@ -9780,16 +11515,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
     </row>
     <row r="3" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -10114,10 +11849,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB50FC46-2646-4F7A-A392-D197CF5CFA96}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11705,17 +13440,51 @@
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
     </row>
+    <row r="53" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F53" s="78" t="s">
+        <v>1723</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J53" s="9"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F53" r:id="rId1" xr:uid="{E7F2AF40-FEF6-47D5-A31B-0C4AC757FAA1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E50E7C0-0529-4455-9C11-F34C4DE22029}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12199,7 +13968,7 @@
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
     </row>
-    <row r="17" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>519</v>
       </c>
@@ -12228,7 +13997,7 @@
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
     </row>
-    <row r="18" spans="1:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>525</v>
       </c>
@@ -12257,7 +14026,7 @@
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
     </row>
-    <row r="19" spans="1:11" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>531</v>
       </c>
@@ -12286,7 +14055,7 @@
       <c r="J19" s="25"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:11" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>535</v>
       </c>
@@ -12315,7 +14084,7 @@
       <c r="J20" s="25"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>540</v>
       </c>
@@ -12344,7 +14113,7 @@
       <c r="J21" s="25"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="1:11" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>545</v>
       </c>
@@ -12373,7 +14142,7 @@
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
     </row>
-    <row r="23" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>550</v>
       </c>
@@ -12402,7 +14171,7 @@
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
     </row>
-    <row r="24" spans="1:11" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>555</v>
       </c>
@@ -12431,7 +14200,7 @@
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
     </row>
-    <row r="25" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>559</v>
       </c>
@@ -12460,7 +14229,7 @@
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
     </row>
-    <row r="26" spans="1:11" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>564</v>
       </c>
@@ -12489,7 +14258,41 @@
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
     </row>
+    <row r="27" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F27" s="78" t="s">
+        <v>1725</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F27" r:id="rId1" xr:uid="{F3A3CF23-0303-43DD-8B43-817C94B11E09}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12498,7 +14301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1B7C40-A5BD-4071-B200-2010311FF8AE}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -14264,11 +16067,11 @@
       <c r="K60" s="25"/>
     </row>
     <row r="61" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="57" t="s">
+      <c r="A61" s="67" t="s">
         <v>791</v>
       </c>
-      <c r="B61" s="58"/>
-      <c r="C61" s="59"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="69"/>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
       <c r="F61" s="35"/>
@@ -15442,22 +17245,22 @@
       </c>
       <c r="J10" s="33"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
     </row>
     <row r="11" spans="1:27" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -15925,28 +17728,28 @@
       <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="52" t="s">
         <v>220</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -15954,19 +17757,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="70" t="s">
         <v>1321</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="72"/>
     </row>
     <row r="3" spans="1:11" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
